--- a/opt2019/files/opt.xlsx
+++ b/opt2019/files/opt.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="opt_class" sheetId="1" r:id="rId1"/>
-    <sheet name="test1" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
   <si>
     <t>user_id</t>
   </si>
@@ -188,6 +189,12 @@
   </si>
   <si>
     <t>Григорий</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -996,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,9 +1427,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1430,212 +1439,751 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>58080206</v>
       </c>
       <c r="B1">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18000348</v>
       </c>
       <c r="B2">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>59154909</v>
       </c>
       <c r="B3">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>58250915</v>
       </c>
       <c r="B4">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>58636859</v>
       </c>
       <c r="B5">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>58117493</v>
       </c>
       <c r="B6">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>58498862</v>
       </c>
       <c r="B7">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2841955</v>
       </c>
       <c r="B8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35608261</v>
       </c>
       <c r="B9">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>58523497</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>58216691</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>58592120</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>27952880</v>
       </c>
       <c r="B13">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>43444735</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>55423922</v>
       </c>
       <c r="B15">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>51200219</v>
       </c>
       <c r="B16">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>57008762</v>
       </c>
       <c r="B17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>58017839</v>
       </c>
       <c r="B18">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18888258</v>
       </c>
       <c r="B19">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15371224</v>
       </c>
       <c r="B20">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>58247683</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>58485930</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>58214164</v>
       </c>
       <c r="B23">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>53152650</v>
       </c>
       <c r="B24">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>58026075</v>
       </c>
       <c r="B25">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>58587401</v>
       </c>
       <c r="B26">
         <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>58080206</v>
+      </c>
+      <c r="B1">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18000348</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>59154909</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>58250915</v>
+      </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>58636859</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>58117493</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>58498862</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2841955</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>35608261</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>58523497</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>58216691</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>58592120</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>27952880</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>43444735</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>55423922</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>51200219</v>
+      </c>
+      <c r="B16">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>57008762</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>58017839</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18888258</v>
+      </c>
+      <c r="B19">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15371224</v>
+      </c>
+      <c r="B20">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>58247683</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>58485930</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>58214164</v>
+      </c>
+      <c r="B23">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>53152650</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>58026075</v>
+      </c>
+      <c r="B25">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>58587401</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/opt2019/files/opt.xlsx
+++ b/opt2019/files/opt.xlsx
@@ -1735,7 +1735,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,7 +1888,7 @@
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
@@ -1956,7 +1956,7 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -2058,7 +2058,7 @@
         <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
@@ -2075,7 +2075,7 @@
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
         <v>54</v>
@@ -2126,7 +2126,7 @@
         <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
@@ -2143,7 +2143,7 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>

--- a/opt2019/files/opt.xlsx
+++ b/opt2019/files/opt.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="opt_class" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="64">
   <si>
     <t>user_id</t>
   </si>
@@ -125,9 +127,6 @@
     <t>Даниил</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
     <t>test2</t>
   </si>
   <si>
@@ -195,6 +194,27 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1034,7 @@
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1031,10 +1051,34 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>58080206</v>
       </c>
@@ -1047,8 +1091,22 @@
       <c r="D2">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>55</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(D2:L2)</f>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="N2">
+        <f>_xlfn.STDEV.P(D2:L2)</f>
+        <v>6.2360956446232363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18000348</v>
       </c>
@@ -1061,8 +1119,22 @@
       <c r="D3">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M27" si="0">AVERAGE(D3:L3)</f>
+        <v>54</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N27" si="1">_xlfn.STDEV.P(D3:L3)</f>
+        <v>20.11632835948615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59154909</v>
       </c>
@@ -1075,8 +1147,22 @@
       <c r="D4">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>85</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>12.24744871391589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>58250915</v>
       </c>
@@ -1089,8 +1175,22 @@
       <c r="D5">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>93</v>
+      </c>
+      <c r="F5">
+        <v>58</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>15.121728296285006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>58636859</v>
       </c>
@@ -1103,8 +1203,22 @@
       <c r="D6">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>12.472191289246471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>58117493</v>
       </c>
@@ -1117,8 +1231,22 @@
       <c r="D7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>37.712361663282536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>58498862</v>
       </c>
@@ -1131,8 +1259,22 @@
       <c r="D8">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>8.4983658559879753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2841955</v>
       </c>
@@ -1145,27 +1287,55 @@
       <c r="D9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>20.548046676563256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35608261</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
       </c>
       <c r="D10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>89</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>79.666666666666671</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>7.7602978178818773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>58523497</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1173,8 +1343,22 @@
       <c r="D11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>16.996731711975951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>58216691</v>
       </c>
@@ -1187,8 +1371,22 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>62</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>27.72483844257107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>58592120</v>
       </c>
@@ -1201,8 +1399,22 @@
       <c r="D13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>79</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>38.666666666666664</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>28.546258754675524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>27952880</v>
       </c>
@@ -1215,8 +1427,22 @@
       <c r="D14">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>10.274023338281628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43444735</v>
       </c>
@@ -1229,22 +1455,50 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>55423922</v>
       </c>
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
       </c>
       <c r="D16">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>85</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>8.4983658559879753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>51200219</v>
       </c>
@@ -1257,27 +1511,55 @@
       <c r="D17">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>13.123346456686352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>57008762</v>
       </c>
       <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
       <c r="D18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>68</v>
+      </c>
+      <c r="F18">
+        <v>78</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>65.333333333333329</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>11.585431464655178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>58017839</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1285,22 +1567,50 @@
       <c r="D19">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>70</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>18.856180831641268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18888258</v>
       </c>
       <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
       </c>
       <c r="D20">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <v>87</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>12.675435561221029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15371224</v>
       </c>
@@ -1313,27 +1623,55 @@
       <c r="D21">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>94</v>
+      </c>
+      <c r="F21">
+        <v>88</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>3.7416573867739413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>58247683</v>
       </c>
       <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>66</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>40.333333333333336</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>28.871362204709975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>58485930</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -1341,36 +1679,78 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>58214164</v>
       </c>
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
       <c r="D24">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>82</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>62.333333333333336</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>14.055445761538676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>53152650</v>
       </c>
       <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
         <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
       </c>
       <c r="D25">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>62</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>56.333333333333336</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>18.006171781426008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>58026075</v>
       </c>
@@ -1383,8 +1763,22 @@
       <c r="D26">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>99</v>
+      </c>
+      <c r="F26">
+        <v>70</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>84.666666666666671</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>11.841546445554409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>58587401</v>
       </c>
@@ -1397,23 +1791,53 @@
       <c r="D27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>55</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>8.4983658559879753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <f>AVERAGE(D2:D27)</f>
         <v>55.192307692307693</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f>AVERAGE(E2:E27)</f>
+        <v>54.96153846153846</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:L28" si="2">AVERAGE(F2:F27)</f>
+        <v>57.807692307692307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <f>_xlfn.STDEV.P(D2:D25)</f>
         <v>29.356524923014227</v>
+      </c>
+      <c r="E29">
+        <f>_xlfn.STDEV.P(E2:E25)</f>
+        <v>30.256283782601813</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:L29" si="3">_xlfn.STDEV.P(F2:F25)</f>
+        <v>26.594139653105699</v>
       </c>
     </row>
   </sheetData>
@@ -1422,6 +1846,9 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D29:E29" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1430,7 +1857,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D26"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1874,7 @@
         <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,7 +1885,7 @@
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1469,7 +1896,7 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,7 +1907,7 @@
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,7 +1918,7 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,7 +1929,7 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,7 +1940,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,7 +1951,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1535,7 +1962,7 @@
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,7 +1973,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,7 +1995,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,7 +2006,7 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,7 +2028,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1612,7 +2039,7 @@
         <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1623,7 +2050,7 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,7 +2061,7 @@
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,7 +2072,7 @@
         <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,7 +2083,7 @@
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,7 +2127,7 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1711,7 +2138,7 @@
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,7 +2149,7 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +2161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1752,7 +2179,7 @@
         <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -1769,7 +2196,7 @@
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1786,7 +2213,7 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -1803,7 +2230,7 @@
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1820,7 +2247,7 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -1837,7 +2264,7 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1854,7 +2281,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1871,7 +2298,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -1888,13 +2315,13 @@
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
         <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1905,10 +2332,10 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -1922,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
@@ -1939,7 +2366,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1956,7 +2383,7 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -1973,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1990,13 +2417,13 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,7 +2434,7 @@
         <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -2024,13 +2451,13 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
         <v>52</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2041,10 +2468,10 @@
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
@@ -2058,13 +2485,13 @@
         <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
         <v>44</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2075,7 +2502,7 @@
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -2092,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
         <v>54</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2109,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
         <v>31</v>
@@ -2126,13 +2553,13 @@
         <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
         <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2143,13 +2570,13 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
         <v>38</v>
-      </c>
-      <c r="F24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2160,7 +2587,7 @@
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -2177,7 +2604,930 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>58080206</v>
+      </c>
+      <c r="B1">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18000348</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>59154909</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>58250915</v>
+      </c>
+      <c r="B4">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>58636859</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>58117493</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>58498862</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2841955</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>35608261</v>
+      </c>
+      <c r="B9">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>58523497</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>58216691</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>58592120</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>27952880</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>43444735</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>55423922</v>
+      </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>51200219</v>
+      </c>
+      <c r="B16">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>57008762</v>
+      </c>
+      <c r="B17">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>58017839</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18888258</v>
+      </c>
+      <c r="B19">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15371224</v>
+      </c>
+      <c r="B20">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>58247683</v>
+      </c>
+      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>58485930</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>58214164</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>53152650</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>58026075</v>
+      </c>
+      <c r="B25">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>58587401</v>
+      </c>
+      <c r="B26">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>58080206</v>
+      </c>
+      <c r="B1">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18000348</v>
+      </c>
+      <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>59154909</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>58250915</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>58636859</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>58117493</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>58498862</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2841955</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>35608261</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>58523497</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>58216691</v>
+      </c>
+      <c r="B11">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>58592120</v>
+      </c>
+      <c r="B12">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>27952880</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>43444735</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>55423922</v>
+      </c>
+      <c r="B15">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>51200219</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>57008762</v>
+      </c>
+      <c r="B17">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>58017839</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18888258</v>
+      </c>
+      <c r="B19">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15371224</v>
+      </c>
+      <c r="B20">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>58247683</v>
+      </c>
+      <c r="B21">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>58485930</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>58214164</v>
+      </c>
+      <c r="B23">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>53152650</v>
+      </c>
+      <c r="B24">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>58026075</v>
+      </c>
+      <c r="B25">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>58587401</v>
+      </c>
+      <c r="B26">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>

--- a/opt2019/files/opt.xlsx
+++ b/opt2019/files/opt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="opt_class" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1819,7 +1819,7 @@
         <v>54.96153846153846</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:L28" si="2">AVERAGE(F2:F27)</f>
+        <f t="shared" ref="F28" si="2">AVERAGE(F2:F27)</f>
         <v>57.807692307692307</v>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
         <v>30.256283782601813</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:L29" si="3">_xlfn.STDEV.P(F2:F25)</f>
+        <f t="shared" ref="F29" si="3">_xlfn.STDEV.P(F2:F25)</f>
         <v>26.594139653105699</v>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,7 +2179,7 @@
         <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -2417,7 +2417,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
@@ -2587,7 +2587,7 @@
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -2622,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,7 +2742,7 @@
         <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -2946,7 +2946,7 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
@@ -2980,7 +2980,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
@@ -3014,7 +3014,7 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>

--- a/opt2019/files/opt.xlsx
+++ b/opt2019/files/opt.xlsx
@@ -2162,6 +2162,467 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>58080206</v>
+      </c>
+      <c r="B1">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18000348</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>59154909</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>58250915</v>
+      </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>58636859</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>58117493</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>58498862</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2841955</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>35608261</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>58523497</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>58216691</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>58592120</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>27952880</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>43444735</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>55423922</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>51200219</v>
+      </c>
+      <c r="B16">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>57008762</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>58017839</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18888258</v>
+      </c>
+      <c r="B19">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15371224</v>
+      </c>
+      <c r="B20">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>58247683</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>58485930</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>58214164</v>
+      </c>
+      <c r="B23">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>53152650</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>58026075</v>
+      </c>
+      <c r="B25">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>58587401</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2176,7 +2637,7 @@
         <v>58080206</v>
       </c>
       <c r="B1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
@@ -2193,7 +2654,7 @@
         <v>18000348</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
@@ -2210,7 +2671,7 @@
         <v>59154909</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -2227,7 +2688,7 @@
         <v>58250915</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -2244,7 +2705,7 @@
         <v>58636859</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
@@ -2261,7 +2722,7 @@
         <v>58117493</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
@@ -2278,7 +2739,7 @@
         <v>58498862</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -2295,7 +2756,7 @@
         <v>2841955</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
@@ -2312,7 +2773,7 @@
         <v>35608261</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
@@ -2329,10 +2790,10 @@
         <v>58523497</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -2346,7 +2807,7 @@
         <v>58216691</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
@@ -2363,10 +2824,10 @@
         <v>58592120</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2380,7 +2841,7 @@
         <v>27952880</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
@@ -2414,7 +2875,7 @@
         <v>55423922</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -2431,7 +2892,7 @@
         <v>51200219</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -2448,7 +2909,7 @@
         <v>57008762</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
@@ -2465,10 +2926,10 @@
         <v>58017839</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
@@ -2482,7 +2943,7 @@
         <v>18888258</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -2499,7 +2960,7 @@
         <v>15371224</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
@@ -2516,7 +2977,7 @@
         <v>58247683</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>55</v>
@@ -2550,7 +3011,7 @@
         <v>58214164</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -2567,7 +3028,7 @@
         <v>53152650</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>55</v>
@@ -2584,7 +3045,7 @@
         <v>58026075</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
@@ -2601,7 +3062,7 @@
         <v>58587401</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
         <v>56</v>
@@ -2615,15 +3076,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,7 +3099,7 @@
         <v>58080206</v>
       </c>
       <c r="B1">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -2654,10 +3116,10 @@
         <v>18000348</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -2671,7 +3133,7 @@
         <v>59154909</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -2688,7 +3150,7 @@
         <v>58250915</v>
       </c>
       <c r="B4">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -2705,7 +3167,7 @@
         <v>58636859</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
@@ -2739,7 +3201,7 @@
         <v>58498862</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -2756,7 +3218,7 @@
         <v>2841955</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
@@ -2773,10 +3235,10 @@
         <v>35608261</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -2790,7 +3252,7 @@
         <v>58523497</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
@@ -2807,7 +3269,7 @@
         <v>58216691</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
@@ -2824,10 +3286,10 @@
         <v>58592120</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2841,10 +3303,10 @@
         <v>27952880</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -2875,10 +3337,10 @@
         <v>55423922</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
@@ -2892,10 +3354,10 @@
         <v>51200219</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -2909,7 +3371,7 @@
         <v>57008762</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
@@ -2926,10 +3388,10 @@
         <v>58017839</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
@@ -2943,7 +3405,7 @@
         <v>18888258</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -2960,10 +3422,10 @@
         <v>15371224</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -2977,10 +3439,10 @@
         <v>58247683</v>
       </c>
       <c r="B21">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
@@ -3011,7 +3473,7 @@
         <v>58214164</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -3028,10 +3490,10 @@
         <v>53152650</v>
       </c>
       <c r="B24">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
         <v>37</v>
@@ -3045,472 +3507,10 @@
         <v>58026075</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>58587401</v>
-      </c>
-      <c r="B26">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>58080206</v>
-      </c>
-      <c r="B1">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>18000348</v>
-      </c>
-      <c r="B2">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>59154909</v>
-      </c>
-      <c r="B3">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>58250915</v>
-      </c>
-      <c r="B4">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>58636859</v>
-      </c>
-      <c r="B5">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>58117493</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>58498862</v>
-      </c>
-      <c r="B7">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2841955</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>35608261</v>
-      </c>
-      <c r="B9">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>58523497</v>
-      </c>
-      <c r="B10">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>58216691</v>
-      </c>
-      <c r="B11">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>58592120</v>
-      </c>
-      <c r="B12">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>27952880</v>
-      </c>
-      <c r="B13">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>43444735</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>55423922</v>
-      </c>
-      <c r="B15">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>51200219</v>
-      </c>
-      <c r="B16">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>57008762</v>
-      </c>
-      <c r="B17">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>58017839</v>
-      </c>
-      <c r="B18">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18888258</v>
-      </c>
-      <c r="B19">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>15371224</v>
-      </c>
-      <c r="B20">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>58247683</v>
-      </c>
-      <c r="B21">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>58485930</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>58214164</v>
-      </c>
-      <c r="B23">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>53152650</v>
-      </c>
-      <c r="B24">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>58026075</v>
-      </c>
-      <c r="B25">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>

--- a/opt2019/files/opt.xlsx
+++ b/opt2019/files/opt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="opt_class" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,16 @@
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="4" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="9" r:id="rId6"/>
+    <sheet name="6" sheetId="10" r:id="rId7"/>
+    <sheet name="7" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
   <si>
     <t>user_id</t>
   </si>
@@ -115,9 +118,6 @@
     <t>Данил</t>
   </si>
   <si>
-    <t>Колодяжный</t>
-  </si>
-  <si>
     <t>Максим</t>
   </si>
   <si>
@@ -215,6 +215,42 @@
   </si>
   <si>
     <t>test10</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>hw1</t>
+  </si>
+  <si>
+    <t>hw2</t>
+  </si>
+  <si>
+    <t>hw3</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>MIDTERM</t>
+  </si>
+  <si>
+    <t>LECTEST</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
   </si>
 </sst>
 </file>
@@ -538,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -653,6 +689,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -698,8 +743,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H2" sqref="H2:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,51 +1080,87 @@
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>58080206</v>
       </c>
@@ -1097,16 +1179,46 @@
       <c r="F2">
         <v>55</v>
       </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
+      </c>
       <c r="M2">
         <f>AVERAGE(D2:L2)</f>
-        <v>63.333333333333336</v>
+        <v>72</v>
       </c>
       <c r="N2">
         <f>_xlfn.STDEV.P(D2:L2)</f>
-        <v>6.2360956446232363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12.083045973594572</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f>R2*S2+T2*U2+V2*W2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>M2</f>
+        <v>72</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>0.5*X2+0.3*Y2+0.1*Z2+0.1*AA2 + 20*AB2</f>
+        <v>21.599999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18000348</v>
       </c>
@@ -1125,24 +1237,54 @@
       <c r="F3">
         <v>31</v>
       </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
       <c r="M3">
-        <f t="shared" ref="M3:M27" si="0">AVERAGE(D3:L3)</f>
-        <v>54</v>
+        <f t="shared" ref="M3:M26" si="0">AVERAGE(D3:L3)</f>
+        <v>58.4</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N27" si="1">_xlfn.STDEV.P(D3:L3)</f>
-        <v>20.11632835948615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N3:N26" si="1">_xlfn.STDEV.P(D3:L3)</f>
+        <v>22.843817544359787</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X26" si="2">R3*S3+T3*U3+V3*W3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y26" si="3">M3</f>
+        <v>58.4</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC26" si="4">0.5*X3+0.3*Y3+0.1*Z3+0.1*AA3 + 20*AB3</f>
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59154909</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
       </c>
       <c r="D4">
         <v>70</v>
@@ -1153,16 +1295,43 @@
       <c r="F4">
         <v>85</v>
       </c>
+      <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>12.24744871391589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10.295630140987001</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="4"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>58250915</v>
       </c>
@@ -1181,16 +1350,43 @@
       <c r="F5">
         <v>58</v>
       </c>
+      <c r="G5">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>70.2</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>15.121728296285006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12.828094168659661</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="3"/>
+        <v>70.2</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="4"/>
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>58636859</v>
       </c>
@@ -1209,16 +1405,43 @@
       <c r="F6">
         <v>45</v>
       </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>61.666666666666664</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>12.472191289246471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15.362291495737216</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="4"/>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>58117493</v>
       </c>
@@ -1237,16 +1460,43 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>37.712361663282536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39.191835884530846</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="4"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>58498862</v>
       </c>
@@ -1265,579 +1515,1170 @@
       <c r="F8">
         <v>75</v>
       </c>
+      <c r="G8">
+        <v>95</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>71</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>8.4983658559879753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13.928388277184119</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="4"/>
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2841955</v>
+        <v>35608261</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <v>90</v>
+      </c>
+      <c r="H9">
+        <v>94</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>84.6</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>20.548046676563256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8.616263691415206</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="3"/>
+        <v>84.6</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="4"/>
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>35608261</v>
+        <v>58523497</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>66</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>79.666666666666671</v>
+        <v>49.2</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>7.7602978178818773</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15.829087149927503</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>49.2</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="4"/>
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>58523497</v>
+        <v>58216691</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F11">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>43.333333333333336</v>
+        <v>23.4</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>16.996731711975951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28.74439075715469</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>23.4</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="4"/>
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>58216691</v>
+        <v>58592120</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>62</v>
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>51.2</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>27.72483844257107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29.741553422778708</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="3"/>
+        <v>51.2</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="4"/>
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>58592120</v>
+        <v>27952880</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>95</v>
+      </c>
+      <c r="H13">
+        <v>75</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>38.666666666666664</v>
+        <v>87</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>28.546258754675524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10.295630140987001</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="4"/>
+        <v>26.099999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>27952880</v>
+        <v>43444735</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>88.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>10.274023338281628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <v>85</v>
+      </c>
+      <c r="H15">
+        <v>80</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.3484692283495345</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="4"/>
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E16">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F16">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>70</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>76.666666666666671</v>
+        <v>63</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>8.4983658559879753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11.661903789690601</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="4"/>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E17">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>78</v>
+      </c>
+      <c r="G17">
+        <v>95</v>
+      </c>
+      <c r="H17">
         <v>70</v>
-      </c>
-      <c r="F17">
-        <v>40</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>58.333333333333336</v>
+        <v>72.2</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>13.123346456686352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14.620533505997653</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="3"/>
+        <v>72.2</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E18">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F18">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>63</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>65.333333333333329</v>
+        <v>58.6</v>
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>11.585431464655178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14.827002394280511</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="3"/>
+        <v>58.6</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>17.579999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>70</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>87</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>56.666666666666664</v>
+        <v>82.6</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>18.856180831641268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>17.269626515938324</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="3"/>
+        <v>82.6</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="4"/>
+        <v>24.779999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F20">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="G20">
+        <v>95</v>
+      </c>
+      <c r="H20">
+        <v>94</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>91.2</v>
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>12.675435561221029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.9698866482558417</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>91.2</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="4"/>
+        <v>27.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F21">
-        <v>88</v>
+        <v>66</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>55</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>45.2</v>
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
-        <v>3.7416573867739413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>23.198275797998434</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="3"/>
+        <v>45.2</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="4"/>
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58247683</v>
+        <v>58485930</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>40.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>28.871362204709975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>58485930</v>
+        <v>58214164</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="G23">
+        <v>85</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15.730225681788548</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="3"/>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="4"/>
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>58214164</v>
+        <v>53152650</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F24">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="G24">
+        <v>61</v>
+      </c>
+      <c r="H24">
+        <v>40</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>62.333333333333336</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <f t="shared" si="1"/>
-        <v>14.055445761538676</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15.709869509324385</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="4"/>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>53152650</v>
+        <v>58026075</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E25">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F25">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>90</v>
+      </c>
+      <c r="H25">
+        <v>96</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>56.333333333333336</v>
+        <v>88</v>
       </c>
       <c r="N25">
         <f t="shared" si="1"/>
-        <v>18.006171781426008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>58026075</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>85</v>
-      </c>
-      <c r="E26">
-        <v>99</v>
-      </c>
-      <c r="F26">
+        <v>10.217631819555841</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="4"/>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>58587401</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1">
+        <v>55</v>
+      </c>
+      <c r="F26" s="1">
         <v>70</v>
       </c>
-      <c r="M26">
+      <c r="G26" s="1">
+        <v>95</v>
+      </c>
+      <c r="H26" s="1">
+        <v>40</v>
+      </c>
+      <c r="M26" s="1">
         <f t="shared" si="0"/>
-        <v>84.666666666666671</v>
-      </c>
-      <c r="N26">
+        <v>62</v>
+      </c>
+      <c r="N26" s="1">
         <f t="shared" si="1"/>
-        <v>11.841546445554409</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>58587401</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
+        <v>19.131126469708992</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" si="4"/>
+        <v>18.599999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <f>AVERAGE(D2:D26)</f>
+        <v>55</v>
       </c>
       <c r="E27">
-        <v>55</v>
+        <f>AVERAGE(E2:E26)</f>
+        <v>56.76</v>
       </c>
       <c r="F27">
-        <v>70</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
-        <v>8.4983658559879753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F2:F26)</f>
+        <v>58.92</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(G2:G26)</f>
+        <v>68.8</v>
+      </c>
+      <c r="H27">
+        <f>AVERAGE(H2:H26)</f>
+        <v>57.56</v>
+      </c>
+      <c r="X27">
+        <f>AVERAGE(X2:X26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f>AVERAGE(Y2:Y26)</f>
+        <v>59.408000000000008</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" ref="Z27:AB27" si="5">AVERAGE(Z2:Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <f>AVERAGE(AC2:AC26)</f>
+        <v>17.822399999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
       <c r="D28">
-        <f>AVERAGE(D2:D27)</f>
-        <v>55.192307692307693</v>
+        <f>_xlfn.STDEV.P(D2:D24)</f>
+        <v>29.962168963513133</v>
       </c>
       <c r="E28">
-        <f>AVERAGE(E2:E27)</f>
-        <v>54.96153846153846</v>
+        <f>_xlfn.STDEV.P(E2:E24)</f>
+        <v>29.510499237007007</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28" si="2">AVERAGE(F2:F27)</f>
-        <v>57.807692307692307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29">
-        <f>_xlfn.STDEV.P(D2:D25)</f>
-        <v>29.356524923014227</v>
-      </c>
-      <c r="E29">
-        <f>_xlfn.STDEV.P(E2:E25)</f>
-        <v>30.256283782601813</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ref="F29" si="3">_xlfn.STDEV.P(F2:F25)</f>
-        <v>26.594139653105699</v>
+        <f t="shared" ref="F28:G28" si="6">_xlfn.STDEV.P(F2:F24)</f>
+        <v>26.559986676380834</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>33.216310021099112</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28" si="7">_xlfn.STDEV.P(H2:H24)</f>
+        <v>27.842114949107575</v>
+      </c>
+      <c r="X28">
+        <f t="shared" ref="X28:Y28" si="8">_xlfn.STDEV.P(X2:X24)</f>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="8"/>
+        <v>24.212409135475664</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" ref="Z28:AB28" si="9">_xlfn.STDEV.P(Z2:Z24)</f>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" ref="AB28" si="10">_xlfn.STDEV.P(AB2:AB24)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f>_xlfn.STDEV.P(AC2:AC24)</f>
+        <v>7.2637227406427121</v>
       </c>
     </row>
   </sheetData>
@@ -1847,17 +2688,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D29:E29" formulaRange="1"/>
+    <ignoredError sqref="D28:E28" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,7 +2715,7 @@
         <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,7 +2726,7 @@
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1896,7 +2737,7 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,7 +2748,7 @@
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,7 +2759,7 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,7 +2770,7 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,216 +2781,205 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2841955</v>
+        <v>35608261</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>35608261</v>
+        <v>58523497</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>58523497</v>
+        <v>58216691</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>58216691</v>
+        <v>58592120</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>58592120</v>
+        <v>27952880</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>27952880</v>
+        <v>43444735</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B18">
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58247683</v>
+        <v>58485930</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58485930</v>
+        <v>58214164</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>58214164</v>
+        <v>53152650</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>53152650</v>
+        <v>58026075</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>58026075</v>
+        <v>58587401</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>58587401</v>
-      </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2159,10 +2989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,7 +3009,7 @@
         <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -2196,7 +3026,7 @@
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -2213,13 +3043,13 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2230,7 +3060,7 @@
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -2247,7 +3077,7 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -2264,7 +3094,7 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2281,7 +3111,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -2292,228 +3122,228 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2841955</v>
+        <v>35608261</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>35608261</v>
+        <v>58523497</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>58523497</v>
+        <v>58216691</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>58216691</v>
+        <v>58592120</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>58592120</v>
+        <v>27952880</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>27952880</v>
+        <v>43444735</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B18">
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58247683</v>
+        <v>58485930</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2522,94 +3352,77 @@
         <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58485930</v>
+        <v>58214164</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>58214164</v>
+        <v>53152650</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>53152650</v>
+        <v>58026075</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>58026075</v>
+        <v>58587401</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>58587401</v>
-      </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2620,10 +3433,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,7 +3453,7 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -2657,7 +3470,7 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -2674,13 +3487,13 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2691,7 +3504,7 @@
         <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -2708,7 +3521,7 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -2725,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2742,7 +3555,7 @@
         <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -2753,324 +3566,307 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2841955</v>
+        <v>35608261</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>35608261</v>
+        <v>58523497</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>58523497</v>
+        <v>58216691</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>58216691</v>
+        <v>58592120</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>58592120</v>
+        <v>27952880</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>27952880</v>
+        <v>43444735</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58247683</v>
+        <v>58485930</v>
       </c>
       <c r="B21">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58485930</v>
+        <v>58214164</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>58214164</v>
+        <v>53152650</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>53152650</v>
+        <v>58026075</v>
       </c>
       <c r="B24">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>58026075</v>
+        <v>58587401</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>58587401</v>
-      </c>
-      <c r="B26">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3082,10 +3878,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,7 +3898,7 @@
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -3119,7 +3915,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -3136,13 +3932,13 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3153,7 +3949,7 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -3170,7 +3966,7 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -3187,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -3204,7 +4000,7 @@
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -3215,296 +4011,296 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2841955</v>
+        <v>35608261</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>35608261</v>
+        <v>58523497</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>58523497</v>
+        <v>58216691</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>58216691</v>
+        <v>58592120</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>58592120</v>
+        <v>27952880</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>27952880</v>
+        <v>43444735</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58247683</v>
+        <v>58485930</v>
       </c>
       <c r="B21">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58485930</v>
+        <v>58214164</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>58214164</v>
+        <v>53152650</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>53152650</v>
+        <v>58026075</v>
       </c>
       <c r="B24">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>58026075</v>
+        <v>58587401</v>
       </c>
       <c r="B25">
         <v>70</v>
@@ -3513,30 +4309,455 @@
         <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>58587401</v>
-      </c>
-      <c r="B26">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>58080206</v>
+      </c>
+      <c r="B1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18000348</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>59154909</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>58250915</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>58636859</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>58117493</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>58498862</v>
+      </c>
+      <c r="B7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35608261</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>58523497</v>
+      </c>
+      <c r="B9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>58216691</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>58592120</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>27952880</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>43444735</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>55423922</v>
+      </c>
+      <c r="B14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>51200219</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>57008762</v>
+      </c>
+      <c r="B16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>58017839</v>
+      </c>
+      <c r="B17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18888258</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15371224</v>
+      </c>
+      <c r="B19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>58247683</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>58485930</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>58214164</v>
+      </c>
+      <c r="B22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>53152650</v>
+      </c>
+      <c r="B23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>58026075</v>
+      </c>
+      <c r="B24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>58587401</v>
+      </c>
+      <c r="B25" s="1">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>58080206</v>
+      </c>
+      <c r="B1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18000348</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>59154909</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>58250915</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>58636859</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>58117493</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>58498862</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35608261</v>
+      </c>
+      <c r="B8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>58523497</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>58216691</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>58592120</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>27952880</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>43444735</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>55423922</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>51200219</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>57008762</v>
+      </c>
+      <c r="B16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>58017839</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18888258</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15371224</v>
+      </c>
+      <c r="B19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>58247683</v>
+      </c>
+      <c r="B20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>58485930</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>58214164</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>53152650</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>58026075</v>
+      </c>
+      <c r="B24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>58587401</v>
+      </c>
+      <c r="B25" s="1">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/opt2019/files/opt.xlsx
+++ b/opt2019/files/opt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="opt_class" sheetId="1" r:id="rId1"/>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,6 +1309,9 @@
         <f t="shared" si="1"/>
         <v>10.295630140987001</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
       <c r="X4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1364,6 +1367,9 @@
         <f t="shared" si="1"/>
         <v>12.828094168659661</v>
       </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
       <c r="X5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1474,6 +1480,9 @@
         <f t="shared" si="1"/>
         <v>39.191835884530846</v>
       </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
       <c r="X7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1703,6 +1712,9 @@
         <f t="shared" si="1"/>
         <v>28.74439075715469</v>
       </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
       <c r="X11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1874,6 +1886,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
       <c r="X14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2045,6 +2060,9 @@
         <f t="shared" si="1"/>
         <v>14.620533505997653</v>
       </c>
+      <c r="S17">
+        <v>0.8</v>
+      </c>
       <c r="X17">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2332,6 +2350,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
       <c r="X22">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2665,7 +2686,7 @@
         <v>24.212409135475664</v>
       </c>
       <c r="Z28">
-        <f t="shared" ref="Z28:AB28" si="9">_xlfn.STDEV.P(Z2:Z24)</f>
+        <f t="shared" ref="Z28:AA28" si="9">_xlfn.STDEV.P(Z2:Z24)</f>
         <v>0</v>
       </c>
       <c r="AA28">
@@ -4539,8 +4560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/opt2019/files/opt.xlsx
+++ b/opt2019/files/opt.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="75">
   <si>
     <t>user_id</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Михаил</t>
   </si>
   <si>
-    <t>Лазичный</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
     <t>Агафонов</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>Данил</t>
   </si>
   <si>
-    <t>Максим</t>
-  </si>
-  <si>
     <t>Гераськин</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>Валентин</t>
   </si>
   <si>
-    <t>Ткачев</t>
-  </si>
-  <si>
     <t>Кузнецова</t>
   </si>
   <si>
@@ -251,6 +239,18 @@
   </si>
   <si>
     <t>PROJECT</t>
+  </si>
+  <si>
+    <t>ИТОГ</t>
+  </si>
+  <si>
+    <t>Досрок</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ПАРИ не ниже 90 за курсеру, иначе не выше хора</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1080,7 @@
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,84 +1091,90 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>58080206</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>65</v>
@@ -1193,40 +1199,61 @@
         <f>_xlfn.STDEV.P(D2:L2)</f>
         <v>12.083045973594572</v>
       </c>
+      <c r="O2">
+        <v>98</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>99</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
       <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <f>R2*S2+T2*U2+V2*W2</f>
-        <v>0</v>
-      </c>
-      <c r="Y2">
+        <v>100</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f>(O2*P2+Q2*R2+S2*T2)/3</f>
+        <v>99</v>
+      </c>
+      <c r="V2">
         <f>M2</f>
         <v>72</v>
       </c>
+      <c r="W2">
+        <v>80</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
       <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
+        <f>0.5*U2+0.35*V2+0.15*W2+0*X2 + 20*Y2</f>
+        <v>106.7</v>
       </c>
       <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f>0.5*X2+0.3*Y2+0.1*Z2+0.1*AA2 + 20*AB2</f>
-        <v>21.599999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18000348</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>80</v>
@@ -1243,48 +1270,75 @@
       <c r="H3">
         <v>40</v>
       </c>
+      <c r="I3">
+        <v>84</v>
+      </c>
+      <c r="J3">
+        <v>27</v>
+      </c>
       <c r="M3">
-        <f t="shared" ref="M3:M26" si="0">AVERAGE(D3:L3)</f>
-        <v>58.4</v>
+        <f t="shared" ref="M3:M24" si="0">AVERAGE(D3:L3)</f>
+        <v>57.571428571428569</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N26" si="1">_xlfn.STDEV.P(D3:L3)</f>
-        <v>22.843817544359787</v>
+        <f t="shared" ref="N3:N24" si="1">_xlfn.STDEV.P(D3:L3)</f>
+        <v>24.627842216582799</v>
+      </c>
+      <c r="O3">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>75.5</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U24" si="2">(O3*P3+Q3*R3+S3*T3)/3</f>
+        <v>83.033333333333331</v>
+      </c>
+      <c r="V3">
+        <f>M3</f>
+        <v>57.571428571428569</v>
+      </c>
+      <c r="W3">
+        <v>75</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X26" si="2">R3*S3+T3*U3+V3*W3</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y26" si="3">M3</f>
-        <v>58.4</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
+        <f t="shared" ref="Z3:Z24" si="3">0.5*U3+0.35*V3+0.15*W3+0*X3 + 20*Y3</f>
+        <v>72.916666666666657</v>
       </c>
       <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC26" si="4">0.5*X3+0.3*Y3+0.1*Z3+0.1*AA3 + 20*AB3</f>
-        <v>17.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59154909</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>70</v>
@@ -1301,48 +1355,72 @@
       <c r="H4">
         <v>60</v>
       </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>63</v>
+      </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>66.142857142857139</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>10.295630140987001</v>
+        <v>9.2184376028009591</v>
+      </c>
+      <c r="O4">
+        <v>7.8</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>70.7</v>
+      </c>
+      <c r="R4">
+        <v>0.4</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>42.76</v>
+      </c>
+      <c r="V4">
+        <f>M4</f>
+        <v>66.142857142857139</v>
+      </c>
+      <c r="W4">
+        <v>80</v>
       </c>
       <c r="X4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
+        <v>56.53</v>
       </c>
       <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="4"/>
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>58250915</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>65</v>
@@ -1367,40 +1445,55 @@
         <f t="shared" si="1"/>
         <v>12.828094168659661</v>
       </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>71.2</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
       <c r="S5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>57.066666666666663</v>
+      </c>
+      <c r="V5">
+        <f>M5</f>
+        <v>70.2</v>
+      </c>
+      <c r="W5">
+        <v>60</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <f t="shared" si="3"/>
-        <v>70.2</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
+        <v>62.103333333333332</v>
       </c>
       <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="4"/>
-        <v>21.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>58636859</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>65</v>
@@ -1425,37 +1518,58 @@
         <f t="shared" si="1"/>
         <v>15.362291495737216</v>
       </c>
+      <c r="O6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.8</v>
+      </c>
+      <c r="Q6">
+        <v>27</v>
+      </c>
+      <c r="R6">
+        <v>0.6</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>43.96</v>
+      </c>
+      <c r="V6">
+        <f>M6</f>
+        <v>58</v>
+      </c>
+      <c r="W6">
+        <v>69</v>
+      </c>
       <c r="X6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
+        <v>52.63</v>
       </c>
       <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="4"/>
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>58117493</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>80</v>
@@ -1472,48 +1586,72 @@
       <c r="H7">
         <v>80</v>
       </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>26.857142857142858</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>39.191835884530846</v>
+        <v>34.917979697033573</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>25.8</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>0.67</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>30.933333333333334</v>
+      </c>
+      <c r="V7">
+        <f>M7</f>
+        <v>26.857142857142858</v>
+      </c>
+      <c r="W7">
+        <v>33</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
+        <v>29.816666666666666</v>
       </c>
       <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="4"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>58498862</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>55</v>
@@ -1530,48 +1668,72 @@
       <c r="H8">
         <v>60</v>
       </c>
+      <c r="I8">
+        <v>90</v>
+      </c>
+      <c r="J8">
+        <v>85</v>
+      </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75.714285714285708</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>13.928388277184119</v>
+        <v>13.997084244475303</v>
+      </c>
+      <c r="O8">
+        <v>80</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>50</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="V8">
+        <f>M8</f>
+        <v>75.714285714285708</v>
+      </c>
+      <c r="W8">
+        <v>88</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
+        <v>78.033333333333331</v>
       </c>
       <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="4"/>
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35608261</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -1588,45 +1750,72 @@
       <c r="H9">
         <v>94</v>
       </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>65</v>
+      </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>84.6</v>
+        <v>78.285714285714292</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>8.616263691415206</v>
+        <v>12.429392419517832</v>
+      </c>
+      <c r="O9">
+        <v>90</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T9">
+        <v>0.87</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>92.333333333333329</v>
+      </c>
+      <c r="V9">
+        <f>M9</f>
+        <v>78.285714285714292</v>
+      </c>
+      <c r="W9">
+        <v>89</v>
       </c>
       <c r="X9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y9">
+        <v>0.95</v>
+      </c>
+      <c r="Z9">
         <f t="shared" si="3"/>
-        <v>84.6</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
+        <v>105.91666666666666</v>
       </c>
       <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="4"/>
-        <v>25.38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>58523497</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1646,48 +1835,75 @@
       <c r="H10">
         <v>50</v>
       </c>
+      <c r="I10">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>49.2</v>
+        <v>52.285714285714285</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>15.829087149927503</v>
+        <v>15.21009331909276</v>
+      </c>
+      <c r="O10">
+        <v>48.4</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>81</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>76.466666666666669</v>
+      </c>
+      <c r="V10">
+        <f>M10</f>
+        <v>52.285714285714285</v>
+      </c>
+      <c r="W10">
+        <v>75</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="3"/>
-        <v>49.2</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
+        <v>67.783333333333331</v>
       </c>
       <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="4"/>
-        <v>14.76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>58216691</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1699,53 +1915,77 @@
         <v>62</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>65</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>23.4</v>
+        <v>51.714285714285715</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>28.74439075715469</v>
+        <v>23.825042561582645</v>
+      </c>
+      <c r="O11">
+        <v>30.5</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>70.7</v>
+      </c>
+      <c r="V11">
+        <f>M11</f>
+        <v>51.714285714285715</v>
+      </c>
+      <c r="W11">
+        <v>69</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <f t="shared" si="3"/>
-        <v>23.4</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
+        <v>63.800000000000004</v>
       </c>
       <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="4"/>
-        <v>7.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>58592120</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -1762,40 +2002,67 @@
       <c r="H12">
         <v>50</v>
       </c>
+      <c r="I12">
+        <v>70</v>
+      </c>
+      <c r="J12">
+        <v>65</v>
+      </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>51.2</v>
+        <v>55.857142857142854</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>29.741553422778708</v>
+        <v>26.226641696829535</v>
+      </c>
+      <c r="O12">
+        <v>44.6</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="R12">
+        <v>0.77</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>68.759</v>
+      </c>
+      <c r="V12">
+        <f>M12</f>
+        <v>55.857142857142854</v>
+      </c>
+      <c r="W12">
+        <v>85</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <f t="shared" si="3"/>
-        <v>51.2</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
+        <v>66.67949999999999</v>
       </c>
       <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="4"/>
-        <v>15.36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>27952880</v>
       </c>
@@ -1820,886 +2087,1137 @@
       <c r="H13">
         <v>75</v>
       </c>
+      <c r="I13">
+        <v>90</v>
+      </c>
+      <c r="J13">
+        <v>77</v>
+      </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>10.295630140987001</v>
+        <v>9.5018795133233667</v>
+      </c>
+      <c r="O13">
+        <v>98</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>73.2</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T13">
+        <v>0.97</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>89.399999999999991</v>
+      </c>
+      <c r="V13">
+        <f>M13</f>
+        <v>86</v>
+      </c>
+      <c r="W13">
+        <v>94</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
+        <v>88.899999999999991</v>
       </c>
       <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="4"/>
-        <v>26.099999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.3484692283495345</v>
+      </c>
+      <c r="O14">
+        <v>86</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>68</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>84.666666666666671</v>
+      </c>
+      <c r="V14">
+        <f>M14</f>
+        <v>79</v>
+      </c>
+      <c r="W14">
+        <v>77</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
+        <v>81.533333333333331</v>
       </c>
       <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E15">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F15">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>7.3484692283495345</v>
+        <v>11.661903789690601</v>
+      </c>
+      <c r="O15">
+        <v>73.5</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T15">
+        <v>0.85</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>79.966666666666669</v>
+      </c>
+      <c r="V15">
+        <f>M15</f>
+        <v>63</v>
+      </c>
+      <c r="W15">
+        <v>85</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
+        <v>74.783333333333331</v>
       </c>
       <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="4"/>
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G16">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H16">
         <v>70</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>72.2</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>11.661903789690601</v>
+        <v>14.620533505997653</v>
+      </c>
+      <c r="O16">
+        <v>50.2</v>
+      </c>
+      <c r="P16">
+        <v>0.8</v>
+      </c>
+      <c r="Q16">
+        <v>55</v>
+      </c>
+      <c r="R16">
+        <v>0.9</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T16">
+        <v>0.93</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>60.886666666666663</v>
+      </c>
+      <c r="V16">
+        <f>M16</f>
+        <v>72.2</v>
+      </c>
+      <c r="W16">
+        <v>70</v>
       </c>
       <c r="X16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
+        <v>66.213333333333338</v>
       </c>
       <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="4"/>
-        <v>18.899999999999999</v>
+        <v>7</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E17">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F17">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G17">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="I17">
+        <v>44</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>72.2</v>
+        <v>52.428571428571431</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>14.620533505997653</v>
+        <v>16.317012531685563</v>
+      </c>
+      <c r="O17">
+        <v>83</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>58.4</v>
+      </c>
+      <c r="R17">
+        <v>0.8</v>
       </c>
       <c r="S17">
-        <v>0.8</v>
+        <v>100</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>76.573333333333338</v>
+      </c>
+      <c r="V17">
+        <f>M17</f>
+        <v>52.428571428571431</v>
+      </c>
+      <c r="W17">
+        <v>55</v>
       </c>
       <c r="X17">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="3"/>
-        <v>72.2</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
+        <v>64.88666666666667</v>
       </c>
       <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="4"/>
-        <v>21.66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>70</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F18">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G18">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>93</v>
+      </c>
+      <c r="J18">
+        <v>90</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>58.6</v>
+        <v>85.142857142857139</v>
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>14.827002394280511</v>
+        <v>15.160367234796048</v>
+      </c>
+      <c r="O18">
+        <v>93.3</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>97.766666666666666</v>
+      </c>
+      <c r="V18">
+        <f>M18</f>
+        <v>85.142857142857139</v>
+      </c>
+      <c r="W18">
+        <v>88</v>
       </c>
       <c r="X18">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="3"/>
-        <v>58.6</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
+        <v>91.88333333333334</v>
       </c>
       <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="4"/>
-        <v>17.579999999999998</v>
+        <v>9</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E19">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F19">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>82.6</v>
+        <v>91.2</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>17.269626515938324</v>
+        <v>3.9698866482558417</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>99</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>99.666666666666671</v>
+      </c>
+      <c r="V19">
+        <f>M19</f>
+        <v>91.2</v>
+      </c>
+      <c r="W19">
+        <v>95</v>
       </c>
       <c r="X19">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
         <f t="shared" si="3"/>
-        <v>82.6</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
+        <v>96.00333333333333</v>
       </c>
       <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="4"/>
-        <v>24.779999999999998</v>
+        <v>10</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F20">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G20">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H20">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>91.2</v>
+        <v>45.2</v>
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>3.9698866482558417</v>
+        <v>23.198275797998434</v>
+      </c>
+      <c r="O20">
+        <v>21.6</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>23.9</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>48.5</v>
+      </c>
+      <c r="V20">
+        <f>M20</f>
+        <v>45.2</v>
+      </c>
+      <c r="W20">
+        <v>80</v>
       </c>
       <c r="X20">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
         <f t="shared" si="3"/>
-        <v>91.2</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
+        <v>52.07</v>
       </c>
       <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="4"/>
-        <v>27.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58247683</v>
+        <v>58214164</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E21">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <v>95</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>45.2</v>
+        <v>68.142857142857139</v>
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
-        <v>23.198275797998434</v>
+        <v>17.299286289394974</v>
+      </c>
+      <c r="O21">
+        <v>87.4</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>78.3</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>88.566666666666663</v>
+      </c>
+      <c r="V21">
+        <f>M21</f>
+        <v>68.142857142857139</v>
+      </c>
+      <c r="W21">
+        <v>78</v>
       </c>
       <c r="X21">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y21">
+        <v>0.5</v>
+      </c>
+      <c r="Z21">
         <f t="shared" si="3"/>
-        <v>45.2</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
+        <v>89.833333333333329</v>
       </c>
       <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="4"/>
-        <v>13.56</v>
+        <v>9</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58485930</v>
+        <v>53152650</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="I22">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>75</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.318263212907013</v>
+      </c>
+      <c r="O22">
+        <v>72.7</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>51.8</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="T22">
+        <v>0.87</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+      <c r="V22">
+        <f>M22</f>
+        <v>55</v>
+      </c>
+      <c r="W22">
+        <v>66</v>
       </c>
       <c r="X22">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>58214164</v>
+        <v>58026075</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F23">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G23">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>64.400000000000006</v>
+        <v>88</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>15.730225681788548</v>
+        <v>10.217631819555841</v>
+      </c>
+      <c r="O23">
+        <v>91.4</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>90.2</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>93.866666666666674</v>
+      </c>
+      <c r="V23">
+        <f>M23</f>
+        <v>88</v>
+      </c>
+      <c r="W23">
+        <v>85</v>
       </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>90.483333333333334</v>
+      </c>
+      <c r="AB23">
+        <v>9</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>58587401</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1">
+        <v>95</v>
+      </c>
+      <c r="H24" s="1">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1">
+        <v>47</v>
+      </c>
+      <c r="J24" s="1">
+        <v>57</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="0"/>
+        <v>59.142857142857146</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="1"/>
+        <v>16.999399749306878</v>
+      </c>
+      <c r="O24" s="1">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>60</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="S24">
+        <v>100</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y23">
+        <v>59.973333333333336</v>
+      </c>
+      <c r="V24" s="1">
+        <f>M24</f>
+        <v>59.142857142857146</v>
+      </c>
+      <c r="W24" s="1">
+        <v>76</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24">
         <f t="shared" si="3"/>
-        <v>64.400000000000006</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
+        <v>62.086666666666666</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(D2:D24)</f>
+        <v>59.782608695652172</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGE(E2:E24)</f>
+        <v>61.695652173913047</v>
+      </c>
+      <c r="F25">
+        <f>AVERAGE(F2:F24)</f>
+        <v>64.043478260869563</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(G2:G24)</f>
+        <v>78.260869565217391</v>
+      </c>
+      <c r="H25">
+        <f>AVERAGE(H2:H24)</f>
+        <v>65.173913043478265</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:K25" si="4">AVERAGE(I2:I24)</f>
+        <v>62.571428571428569</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="4"/>
-        <v>19.32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>53152650</v>
-      </c>
-      <c r="B24" t="s">
+        <v>60.285714285714285</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:N25" si="5">AVERAGE(M2:M24)</f>
+        <v>65.612422360248459</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>15.797341509442111</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25" si="6">AVERAGE(O2:O24)</f>
+        <v>66.114285714285714</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:Q25" si="7">AVERAGE(P2:P24)</f>
+        <v>0.84782608695652173</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>69.613043478260877</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25" si="8">AVERAGE(R2:R24)</f>
+        <v>0.92260869565217385</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25:T25" si="9">AVERAGE(S2:S24)</f>
+        <v>100</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="9"/>
+        <v>0.96347826086956523</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25" si="10">AVERAGE(U2:U24)</f>
+        <v>73.565753623188414</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25:W25" si="11">AVERAGE(V2:V24)</f>
+        <v>65.612422360248459</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="11"/>
+        <v>76.173913043478265</v>
+      </c>
+      <c r="X25">
+        <f t="shared" ref="X25" si="12">AVERAGE(X2:X24)</f>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ref="Y25:Z25" si="13">AVERAGE(Y2:Y24)</f>
+        <v>0.10652173913043479</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="13"/>
+        <v>73.303746376811588</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" ref="AB25" si="14">AVERAGE(AB2:AB24)</f>
+        <v>7.2608695652173916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24">
-        <v>75</v>
-      </c>
-      <c r="E24">
-        <v>32</v>
-      </c>
-      <c r="F24">
-        <v>62</v>
-      </c>
-      <c r="G24">
-        <v>61</v>
-      </c>
-      <c r="H24">
-        <v>40</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="1"/>
-        <v>15.709869509324385</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="4"/>
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>58026075</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>85</v>
-      </c>
-      <c r="E25">
-        <v>99</v>
-      </c>
-      <c r="F25">
-        <v>70</v>
-      </c>
-      <c r="G25">
-        <v>90</v>
-      </c>
-      <c r="H25">
-        <v>96</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
-        <v>10.217631819555841</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="4"/>
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>58587401</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="1">
-        <v>50</v>
-      </c>
-      <c r="E26" s="1">
-        <v>55</v>
-      </c>
-      <c r="F26" s="1">
-        <v>70</v>
-      </c>
-      <c r="G26" s="1">
-        <v>95</v>
-      </c>
-      <c r="H26" s="1">
-        <v>40</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="1"/>
-        <v>19.131126469708992</v>
-      </c>
-      <c r="X26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="1">
-        <f t="shared" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="1">
-        <f t="shared" si="4"/>
-        <v>18.599999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27">
-        <f>AVERAGE(D2:D26)</f>
-        <v>55</v>
-      </c>
-      <c r="E27">
-        <f>AVERAGE(E2:E26)</f>
-        <v>56.76</v>
-      </c>
-      <c r="F27">
-        <f>AVERAGE(F2:F26)</f>
-        <v>58.92</v>
-      </c>
-      <c r="G27">
-        <f>AVERAGE(G2:G26)</f>
-        <v>68.8</v>
-      </c>
-      <c r="H27">
-        <f>AVERAGE(H2:H26)</f>
-        <v>57.56</v>
-      </c>
-      <c r="X27">
-        <f>AVERAGE(X2:X26)</f>
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <f>AVERAGE(Y2:Y26)</f>
-        <v>59.408000000000008</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" ref="Z27:AB27" si="5">AVERAGE(Z2:Z26)</f>
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <f>AVERAGE(AC2:AC26)</f>
-        <v>17.822399999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28">
-        <f>_xlfn.STDEV.P(D2:D24)</f>
-        <v>29.962168963513133</v>
-      </c>
-      <c r="E28">
-        <f>_xlfn.STDEV.P(E2:E24)</f>
-        <v>29.510499237007007</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ref="F28:G28" si="6">_xlfn.STDEV.P(F2:F24)</f>
-        <v>26.559986676380834</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="6"/>
-        <v>33.216310021099112</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ref="H28" si="7">_xlfn.STDEV.P(H2:H24)</f>
-        <v>27.842114949107575</v>
-      </c>
-      <c r="X28">
-        <f t="shared" ref="X28:Y28" si="8">_xlfn.STDEV.P(X2:X24)</f>
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="8"/>
-        <v>24.212409135475664</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" ref="Z28:AA28" si="9">_xlfn.STDEV.P(Z2:Z24)</f>
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" ref="AB28" si="10">_xlfn.STDEV.P(AB2:AB24)</f>
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <f>_xlfn.STDEV.P(AC2:AC24)</f>
-        <v>7.2637227406427121</v>
+      <c r="D26">
+        <f>_xlfn.STDEV.P(D2:D22)</f>
+        <v>26.077679181129653</v>
+      </c>
+      <c r="E26">
+        <f>_xlfn.STDEV.P(E2:E22)</f>
+        <v>25.26413750736268</v>
+      </c>
+      <c r="F26">
+        <f>_xlfn.STDEV.P(F2:F22)</f>
+        <v>20.548708794145096</v>
+      </c>
+      <c r="G26">
+        <f>_xlfn.STDEV.P(G2:G22)</f>
+        <v>21.843392292592114</v>
+      </c>
+      <c r="H26">
+        <f>_xlfn.STDEV.P(H2:H22)</f>
+        <v>17.970623546710794</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:K26" si="15">_xlfn.STDEV.P(I2:I22)</f>
+        <v>20.681295325277887</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="15"/>
+        <v>26.360271343926712</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="L26:AB26" si="16">_xlfn.STDEV.P(M2:M22)</f>
+        <v>15.109121463229497</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="16"/>
+        <v>6.983856622828057</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="16"/>
+        <v>28.851153018049601</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="16"/>
+        <v>0.34706413634835409</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="16"/>
+        <v>22.97630051787122</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="16"/>
+        <v>0.15605685341118086</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="16"/>
+        <v>8.0887929525097504E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="16"/>
+        <v>19.229926790260564</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="16"/>
+        <v>15.109121463229497</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="16"/>
+        <v>14.037042022906196</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="16"/>
+        <v>0.29814239699997197</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="16"/>
+        <v>18.500811501714455</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="16"/>
+        <v>1.8232561637215854</v>
       </c>
     </row>
   </sheetData>
@@ -2709,17 +3227,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D28:E28" formulaRange="1"/>
+    <ignoredError sqref="D26:E26" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,7 +3254,7 @@
         <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,7 +3265,7 @@
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2758,7 +3276,7 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,7 +3287,7 @@
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2780,7 +3298,7 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,7 +3309,7 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2802,7 +3320,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,7 +3331,7 @@
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2824,7 +3342,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,7 +3364,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2857,150 +3375,128 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B17">
         <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>58247683</v>
+        <v>58214164</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58485930</v>
+        <v>53152650</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58214164</v>
+        <v>58026075</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>53152650</v>
+        <v>58587401</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>58026075</v>
-      </c>
-      <c r="B24">
-        <v>85</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>58587401</v>
-      </c>
-      <c r="B25">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3010,10 +3506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,13 +3526,13 @@
         <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3047,13 +3543,13 @@
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,13 +3560,13 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3081,13 +3577,13 @@
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3098,13 +3594,13 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,13 +3611,13 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3132,13 +3628,13 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3149,13 +3645,13 @@
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3166,10 +3662,10 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -3183,13 +3679,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3200,13 +3696,13 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3217,7 +3713,7 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -3228,223 +3724,189 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B17">
         <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>58247683</v>
+        <v>58214164</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58485930</v>
+        <v>53152650</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58214164</v>
+        <v>58026075</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>53152650</v>
+        <v>58587401</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>58026075</v>
-      </c>
-      <c r="B24">
-        <v>85</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>58587401</v>
-      </c>
-      <c r="B25">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3454,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,13 +3936,13 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3491,13 +3953,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3508,13 +3970,13 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,13 +3987,13 @@
         <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3542,13 +4004,13 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3559,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3576,13 +4038,13 @@
         <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3593,13 +4055,13 @@
         <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3610,10 +4072,10 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -3627,13 +4089,13 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3644,13 +4106,13 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3661,7 +4123,7 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -3672,223 +4134,189 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>58247683</v>
+        <v>58214164</v>
       </c>
       <c r="B20">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58485930</v>
+        <v>53152650</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58214164</v>
+        <v>58026075</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>53152650</v>
+        <v>58587401</v>
       </c>
       <c r="B23">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>58026075</v>
-      </c>
-      <c r="B24">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>58587401</v>
-      </c>
-      <c r="B25">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3899,10 +4327,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3919,13 +4347,13 @@
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3936,13 +4364,13 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3953,13 +4381,13 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3970,13 +4398,13 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3987,13 +4415,13 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4004,13 +4432,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4021,13 +4449,13 @@
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4038,13 +4466,13 @@
         <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,10 +4483,10 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -4072,13 +4500,13 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4089,13 +4517,13 @@
         <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4106,7 +4534,7 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -4117,223 +4545,189 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>58247683</v>
+        <v>58214164</v>
       </c>
       <c r="B20">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58485930</v>
+        <v>53152650</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58214164</v>
+        <v>58026075</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>53152650</v>
+        <v>58587401</v>
       </c>
       <c r="B23">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>58026075</v>
-      </c>
-      <c r="B24">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>58587401</v>
-      </c>
-      <c r="B25">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4343,10 +4737,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B25"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,105 +4843,89 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>58247683</v>
+        <v>58214164</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58485930</v>
+        <v>53152650</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58214164</v>
+        <v>58026075</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>53152650</v>
-      </c>
-      <c r="B23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>58026075</v>
-      </c>
-      <c r="B24">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A23" s="1">
         <v>58587401</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B23" s="1">
         <v>95</v>
       </c>
     </row>
@@ -4558,10 +4936,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4664,23 +5042,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>43444735</v>
+        <v>55423922</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>55423922</v>
+        <v>51200219</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>51200219</v>
+        <v>57008762</v>
       </c>
       <c r="B15">
         <v>70</v>
@@ -4688,81 +5066,65 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>57008762</v>
+        <v>58017839</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>58017839</v>
+        <v>18888258</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18888258</v>
+        <v>15371224</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15371224</v>
+        <v>58247683</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>58247683</v>
+        <v>58214164</v>
       </c>
       <c r="B20">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>58485930</v>
+        <v>53152650</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>58214164</v>
+        <v>58026075</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>53152650</v>
-      </c>
-      <c r="B23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>58026075</v>
-      </c>
-      <c r="B24">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A23" s="1">
         <v>58587401</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B23" s="1">
         <v>40</v>
       </c>
     </row>
